--- a/backend/services/rep.xlsx
+++ b/backend/services/rep.xlsx
@@ -7,16 +7,21 @@
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="Статистика" sheetId="2" r:id="rId2"/>
-    <sheet name="Заправки" sheetId="3" r:id="rId3"/>
+    <sheet name="Сводка" sheetId="3" r:id="rId3"/>
+    <sheet name="Моточасы" sheetId="4" r:id="rId4"/>
+    <sheet name="Остановки" sheetId="5" r:id="rId5"/>
+    <sheet name="Стоянки" sheetId="6" r:id="rId6"/>
+    <sheet name="Поездки" sheetId="7" r:id="rId7"/>
+    <sheet name="Плановое техобслуживание" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
-  <si>
-    <t>Движение топлива</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="150">
+  <si>
+    <t>СПЕЦ СИЛ МАШ 2</t>
   </si>
   <si>
     <t>Статистика</t>
@@ -28,67 +33,442 @@
     <t>Объект</t>
   </si>
   <si>
-    <t>Caterpillar D6N LGP 2496са78</t>
+    <t>Caterpillar D5N LGP 2065са78</t>
   </si>
   <si>
     <t>Начало интервала</t>
   </si>
   <si>
-    <t>14.11.2023 00:00:00</t>
+    <t>05.12.2023 00:00:00</t>
   </si>
   <si>
     <t>Окончание интервала</t>
   </si>
   <si>
-    <t>14.11.2023 23:59:59</t>
-  </si>
-  <si>
-    <t>Пробег по всем сообщениям</t>
+    <t>05.12.2023 23:59:59</t>
+  </si>
+  <si>
+    <t>Потрачено</t>
+  </si>
+  <si>
+    <t>Потрачено по нормам</t>
+  </si>
+  <si>
+    <t>Ср. расход</t>
+  </si>
+  <si>
+    <t>Моточасы</t>
+  </si>
+  <si>
+    <t>5:11:49</t>
+  </si>
+  <si>
+    <t>Всего заправлено</t>
+  </si>
+  <si>
+    <t>Всего заправок</t>
+  </si>
+  <si>
+    <t>Всего топлива слито</t>
+  </si>
+  <si>
+    <t>Всего сливов</t>
+  </si>
+  <si>
+    <t>Продолжительность стоянок</t>
+  </si>
+  <si>
+    <t>7:31:22</t>
+  </si>
+  <si>
+    <t>Количество стоянок</t>
+  </si>
+  <si>
+    <t>Количество остановок</t>
+  </si>
+  <si>
+    <t>Пробег в поездках</t>
+  </si>
+  <si>
+    <t>Ср. расход по ДУТ в м/ч</t>
   </si>
   <si>
     <t>Потрачено по ДУТ</t>
   </si>
   <si>
-    <t>Ср. расход по ДУТ (весь пробег)</t>
-  </si>
-  <si>
-    <t>Всего заправлено</t>
-  </si>
-  <si>
-    <t>Всего заправок</t>
-  </si>
-  <si>
-    <t>Всего топлива слито</t>
-  </si>
-  <si>
-    <t>Всего сливов</t>
-  </si>
-  <si>
-    <t>Заправки</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Время</t>
+    <t>Потрачено по ДУТ в м/ч</t>
+  </si>
+  <si>
+    <t>Сводка</t>
+  </si>
+  <si>
+    <t>Группировка</t>
+  </si>
+  <si>
+    <t>Ср. скорость</t>
+  </si>
+  <si>
+    <t>Макс. скорость</t>
+  </si>
+  <si>
+    <t>Время в движении</t>
+  </si>
+  <si>
+    <t>Стоянки</t>
+  </si>
+  <si>
+    <t>Нач. уровень</t>
+  </si>
+  <si>
+    <t>Кон. уровень</t>
+  </si>
+  <si>
+    <t>Заправлено</t>
+  </si>
+  <si>
+    <t>Слито</t>
+  </si>
+  <si>
+    <t>05.12.2023</t>
+  </si>
+  <si>
+    <t>2:37:02</t>
+  </si>
+  <si>
+    <t>05.12.2023 04:10:47</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Нач. положение</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
+    <t>Кон. положение</t>
+  </si>
+  <si>
+    <t>В движении</t>
+  </si>
+  <si>
+    <t>Холостой ход</t>
+  </si>
+  <si>
+    <t>05.12.2023 04:11:02</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 04:32:44</t>
+  </si>
+  <si>
+    <t>0:21:42</t>
+  </si>
+  <si>
+    <t>0:01:26</t>
+  </si>
+  <si>
+    <t>0:20:16</t>
+  </si>
+  <si>
+    <t>05.12.2023 08:14:19</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:45:06</t>
+  </si>
+  <si>
+    <t>3:30:47</t>
+  </si>
+  <si>
+    <t>1:55:55</t>
+  </si>
+  <si>
+    <t>1:34:52</t>
+  </si>
+  <si>
+    <t>05.12.2023 12:59:51</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:19:11</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино</t>
+  </si>
+  <si>
+    <t>1:19:20</t>
+  </si>
+  <si>
+    <t>1:18:47</t>
+  </si>
+  <si>
+    <t>0:00:33</t>
+  </si>
+  <si>
+    <t>3:16:08</t>
+  </si>
+  <si>
+    <t>1:55:41</t>
+  </si>
+  <si>
+    <t>Остановки</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>Общее время</t>
   </si>
   <si>
     <t>Положение</t>
   </si>
   <si>
-    <t>Заправлено</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14.11.2023 07:56:57</t>
-  </si>
-  <si>
-    <t>Гаражный проезд, Псков, Псковская обл., Россия</t>
+    <t>05.12.2023 09:34:52</t>
+  </si>
+  <si>
+    <t>0:00:00</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.92 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:37:46</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:37:55</t>
+  </si>
+  <si>
+    <t>0:00:09</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:39:01</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:45:51</t>
+  </si>
+  <si>
+    <t>0:00:45</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:47:25</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:50:00</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:00:00</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:00:57</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:02:40</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:50:50</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.50 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:54:19</t>
+  </si>
+  <si>
+    <t>05.12.2023 13:58:55</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.53 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:04:30</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:04:54</t>
+  </si>
+  <si>
+    <t>0:00:24</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.55 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:07:22</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.57 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:11:26</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.58 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:13:22</t>
+  </si>
+  <si>
+    <t>05.12.2023 14:14:53</t>
+  </si>
+  <si>
+    <t>0:01:18</t>
+  </si>
+  <si>
+    <t>4:40:01</t>
   </si>
   <si>
     <t>-----</t>
+  </si>
+  <si>
+    <t>Время между</t>
+  </si>
+  <si>
+    <t>05.12.2023 09:31:09</t>
+  </si>
+  <si>
+    <t>5:20:22</t>
+  </si>
+  <si>
+    <t>05.12.2023 09:53:11</t>
+  </si>
+  <si>
+    <t>05.12.2023 09:59:14</t>
+  </si>
+  <si>
+    <t>0:06:03</t>
+  </si>
+  <si>
+    <t>0:22:02</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.97 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 10:13:51</t>
+  </si>
+  <si>
+    <t>05.12.2023 10:26:19</t>
+  </si>
+  <si>
+    <t>0:12:28</t>
+  </si>
+  <si>
+    <t>0:14:37</t>
+  </si>
+  <si>
+    <t>41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино</t>
+  </si>
+  <si>
+    <t>05.12.2023 10:34:11</t>
+  </si>
+  <si>
+    <t>05.12.2023 10:45:50</t>
+  </si>
+  <si>
+    <t>0:11:39</t>
+  </si>
+  <si>
+    <t>0:07:52</t>
+  </si>
+  <si>
+    <t>05.12.2023 10:55:25</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:16:02</t>
+  </si>
+  <si>
+    <t>0:20:37</t>
+  </si>
+  <si>
+    <t>0:09:35</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:21:36</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:33:55</t>
+  </si>
+  <si>
+    <t>0:12:19</t>
+  </si>
+  <si>
+    <t>0:05:34</t>
+  </si>
+  <si>
+    <t>05.12.2023 11:51:57</t>
+  </si>
+  <si>
+    <t>1:07:54</t>
+  </si>
+  <si>
+    <t>0:18:02</t>
+  </si>
+  <si>
+    <t>8:49:04</t>
+  </si>
+  <si>
+    <t>1:17:42</t>
+  </si>
+  <si>
+    <t>Поездки</t>
+  </si>
+  <si>
+    <t>Пробег</t>
+  </si>
+  <si>
+    <t>0:11:11</t>
+  </si>
+  <si>
+    <t>4:48:02</t>
+  </si>
+  <si>
+    <t>2:11:00</t>
+  </si>
+  <si>
+    <t>2:30:11</t>
+  </si>
+  <si>
+    <t>Плановое техобслуживание</t>
+  </si>
+  <si>
+    <t>Интервал техобслуживания</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Состояние по пробегу</t>
+  </si>
+  <si>
+    <t>Состояние по моточасам</t>
+  </si>
+  <si>
+    <t>Состояние по дням</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Периодичность</t>
+  </si>
+  <si>
+    <t>Межсервисный интервал</t>
+  </si>
+  <si>
+    <t>Осталось 240 ч</t>
+  </si>
+  <si>
+    <t>500 ч</t>
   </si>
 </sst>
 </file>
@@ -144,7 +524,7 @@
       <color rgb="00464646"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="45">
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
@@ -201,14 +581,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E1E1E1"/>
         <bgColor rgb="00E1E1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E1E1"/>
-        <bgColor rgb="00E1E1E1"/>
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -237,6 +689,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
       </patternFill>
@@ -247,8 +729,74 @@
         <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="45">
     <border>
       <left style="none">
         <color rgb="00000000"/>
@@ -487,8 +1035,400 @@
         <color rgb="00D0D0D0"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00D0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D0D0D0"/>
+      </bottom>
+    </border>
   </borders>
-  <cellXfs count="17">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -501,44 +1441,128 @@
     <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="24" fontId="0" fillId="4" borderId="4" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="11" borderId="11" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="27" fontId="0" fillId="12" borderId="12" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="14" borderId="14" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="15" borderId="15" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="13" fontId="0" fillId="16" borderId="16" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="17" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="18" borderId="18" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="19" borderId="19" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="20" borderId="20" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="22" borderId="22" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="22" fontId="0" fillId="24" borderId="24" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="12" borderId="12" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="13" fontId="0" fillId="25" borderId="25" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="9" fontId="0" fillId="26" borderId="26" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="27" borderId="27" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="28" borderId="28" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="29" borderId="29" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="31" borderId="31" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="32" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="33" borderId="33" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="1" fillId="34" borderId="34" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="35" borderId="35" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="1" fillId="36" borderId="36" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="37" borderId="37" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="38" borderId="38" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="39" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="40" borderId="40" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="41" borderId="41" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="42" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="14" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="6" fontId="1" fillId="43" borderId="43" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="16" borderId="16" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="44" xfId="0" applyBorder="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -574,13 +1598,43 @@
     </row>
     <row ht="12.800000" outlineLevel="0" r="4" s="0">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="5" s="0">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="6" s="0">
+      <c r="A6" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="7" s="0">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="8" s="0">
+      <c r="A8" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="9" s="0">
+      <c r="A9" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="'Статистика'!A1" ref="A3" display="Статистика"/>
-    <hyperlink location="'Заправки'!A1" ref="A4" display="Заправки"/>
+    <hyperlink location="'Моточасы'!A1" ref="A5" display="Моточасы"/>
+    <hyperlink location="'Стоянки'!A1" ref="A7" display="Стоянки"/>
+    <hyperlink location="'Остановки'!A1" ref="A6" display="Остановки"/>
+    <hyperlink location="'Плановое техобслуживание'!A1" ref="A9" display="Плановое техобслуживание"/>
+    <hyperlink location="'Сводка'!A1" ref="A4" display="Сводка"/>
+    <hyperlink location="'Поездки'!A1" ref="A8" display="Поездки"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -632,58 +1686,122 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.293102</v>
+        <v>47.060303</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="6" s="0">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>133.049530</v>
+      <c r="B6" s="4" t="n">
+        <v>0.542345</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="7" s="0">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1082.310513</v>
+      <c r="B7" s="5" t="n">
+        <v>867.718887</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="8" s="0">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>237.263702</v>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="9" s="0">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="10" s="0">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="n">
         <v>0.000000</v>
       </c>
     </row>
     <row ht="12.800000" outlineLevel="0" r="11" s="0">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>0.000000</v>
       </c>
     </row>
-    <row customHeight="true" ht="30.000000" outlineLevel="0" r="12" s="0"/>
+    <row ht="12.800000" outlineLevel="0" r="12" s="0">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="13" s="0">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="14" s="0">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>7.000000</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="15" s="0">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>17.000000</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="16" s="0">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>5.281665</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="17" s="0">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>7.740666</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="18" s="0">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>47.060303</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="19" s="0">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>40.227814</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="20" s="0"/>
   </sheetData>
 </worksheet>
 </file>
@@ -699,52 +1817,1444 @@
   </cols>
   <sheetData>
     <row ht="12.800000" outlineLevel="0" r="1" s="0">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="N1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>5.281665</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>0.534857</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>11.000000</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row ht="12.800000" outlineLevel="0" r="2" s="0">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="14" t="n">
-        <v>237.263702</v>
-      </c>
-    </row>
-    <row ht="12.800000" outlineLevel="0" r="3" s="0">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>237.263702</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="30.000000" outlineLevel="0" r="4" s="0"/>
+      <c r="H2" s="18" t="n">
+        <v>47.060303</v>
+      </c>
+      <c r="I2" s="19" t="n">
+        <v>867.718887</v>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>215.254440</v>
+      </c>
+      <c r="K2" s="20" t="n">
+        <v>168.194138</v>
+      </c>
+      <c r="L2" s="21" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="M2" s="21" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="N2" s="22" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="O2" s="22" t="n">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row hidden="true" ht="12.800000" outlineLevel="1" r="3" s="0">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="24" t="n">
+        <v>5.281665</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>0.534857</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>11.000000</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="27" t="n">
+        <v>47.060303</v>
+      </c>
+      <c r="I3" s="28" t="n">
+        <v>867.718887</v>
+      </c>
+      <c r="J3" s="29" t="n">
+        <v>215.254440</v>
+      </c>
+      <c r="K3" s="29" t="n">
+        <v>168.194138</v>
+      </c>
+      <c r="L3" s="30" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="M3" s="30" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="N3" s="31" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="O3" s="31" t="n">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="4" s="0">
+      <c r="A4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="33" t="n">
+        <v>5.281665</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <v>0.534857</v>
+      </c>
+      <c r="D4" s="34" t="n">
+        <v>11.000000</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>47.060303</v>
+      </c>
+      <c r="I4" s="37" t="n">
+        <v>867.718887</v>
+      </c>
+      <c r="J4" s="38" t="n">
+        <v>215.254440</v>
+      </c>
+      <c r="K4" s="38" t="n">
+        <v>168.194138</v>
+      </c>
+      <c r="L4" s="39" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="M4" s="39" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="N4" s="40" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="O4" s="40" t="n">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="5" s="0"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="14.11.2023 07:56:57" ref="B2" r:id="rId1"/>
-    <hyperlink display="Гаражный проезд, Псков, Псковская обл., Россия" ref="C2" r:id="rId2"/>
+    <hyperlink display="11 км/ч" ref="D2" r:id="rId1"/>
+    <hyperlink display="11 км/ч" ref="D4" r:id="rId2"/>
+    <hyperlink display="11 км/ч" ref="D3" r:id="rId3"/>
   </hyperlinks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col max="101" min="1" style="0" width="16.666666"/>
+  </cols>
+  <sheetData>
+    <row ht="12.800000" outlineLevel="0" r="1" s="0">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="3" s="0">
+      <c r="A3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="4" s="0">
+      <c r="A4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="5" s="0">
+      <c r="A5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="6" s="0"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="05.12.2023 14:19:11" ref="C4" r:id="rId1"/>
+    <hyperlink display="05.12.2023 08:14:19" ref="A3" r:id="rId2"/>
+    <hyperlink display="05.12.2023 04:11:02" ref="A2" r:id="rId3"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="B4" r:id="rId4"/>
+    <hyperlink display="05.12.2023 04:11:02" ref="A5" r:id="rId5"/>
+    <hyperlink display="05.12.2023 12:59:51" ref="A4" r:id="rId6"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="B3" r:id="rId7"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="D3" r:id="rId8"/>
+    <hyperlink display="05.12.2023 04:32:44" ref="C2" r:id="rId9"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="B5" r:id="rId10"/>
+    <hyperlink display="05.12.2023 11:45:06" ref="C3" r:id="rId11"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="D5" r:id="rId12"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="B2" r:id="rId13"/>
+    <hyperlink display="05.12.2023 14:19:11" ref="C5" r:id="rId14"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="D2" r:id="rId15"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="D4" r:id="rId16"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col max="101" min="1" style="0" width="16.666666"/>
+  </cols>
+  <sheetData>
+    <row ht="12.800000" outlineLevel="0" r="1" s="0">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="3" s="0">
+      <c r="A3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="4" s="0">
+      <c r="A4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="5" s="0">
+      <c r="A5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="6" s="0">
+      <c r="A6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="7" s="0">
+      <c r="A7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="8" s="0">
+      <c r="A8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="9" s="0">
+      <c r="A9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="10" s="0">
+      <c r="A10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="11" s="0">
+      <c r="A11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="12" s="0">
+      <c r="A12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="13" s="0">
+      <c r="A13" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="14" s="0">
+      <c r="A14" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="15" s="0">
+      <c r="A15" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="16" s="0">
+      <c r="A16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="17" s="0">
+      <c r="A17" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="18" s="0">
+      <c r="A18" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="19" s="0">
+      <c r="A19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="20" s="0"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="E18" r:id="rId1"/>
+    <hyperlink display="05.12.2023 09:34:52" ref="A2" r:id="rId2"/>
+    <hyperlink display="05.12.2023 11:47:25" ref="A6" r:id="rId3"/>
+    <hyperlink display="05.12.2023 11:45:06" ref="A5" r:id="rId4"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.50 км от Новолисино" ref="E12" r:id="rId5"/>
+    <hyperlink display="05.12.2023 14:13:22" ref="B17" r:id="rId6"/>
+    <hyperlink display="05.12.2023 14:07:22" ref="B15" r:id="rId7"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино" ref="E4" r:id="rId8"/>
+    <hyperlink display="05.12.2023 13:00:57" ref="B9" r:id="rId9"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.50 км от Новолисино" ref="E11" r:id="rId10"/>
+    <hyperlink display="05.12.2023 11:37:55" ref="B3" r:id="rId11"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="E8" r:id="rId12"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="E5" r:id="rId13"/>
+    <hyperlink display="05.12.2023 13:58:55" ref="B13" r:id="rId14"/>
+    <hyperlink display="05.12.2023 14:07:22" ref="A15" r:id="rId15"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино" ref="E3" r:id="rId16"/>
+    <hyperlink display="05.12.2023 14:11:26" ref="B16" r:id="rId17"/>
+    <hyperlink display="05.12.2023 14:14:53" ref="A18" r:id="rId18"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="E7" r:id="rId19"/>
+    <hyperlink display="05.12.2023 11:37:46" ref="A3" r:id="rId20"/>
+    <hyperlink display="05.12.2023 11:39:01" ref="B4" r:id="rId21"/>
+    <hyperlink display="05.12.2023 14:14:53" ref="B18" r:id="rId22"/>
+    <hyperlink display="05.12.2023 13:02:40" ref="A10" r:id="rId23"/>
+    <hyperlink display="05.12.2023 13:54:19" ref="A12" r:id="rId24"/>
+    <hyperlink display="05.12.2023 11:50:00" ref="B7" r:id="rId25"/>
+    <hyperlink display="05.12.2023 14:11:26" ref="A16" r:id="rId26"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="E17" r:id="rId27"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="E6" r:id="rId28"/>
+    <hyperlink display="05.12.2023 11:39:01" ref="A4" r:id="rId29"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.57 км от Новолисино" ref="E15" r:id="rId30"/>
+    <hyperlink display="05.12.2023 14:13:22" ref="A17" r:id="rId31"/>
+    <hyperlink display="05.12.2023 14:04:54" ref="B14" r:id="rId32"/>
+    <hyperlink display="05.12.2023 13:02:40" ref="B10" r:id="rId33"/>
+    <hyperlink display="05.12.2023 13:50:50" ref="A11" r:id="rId34"/>
+    <hyperlink display="05.12.2023 09:34:52" ref="B2" r:id="rId35"/>
+    <hyperlink display="05.12.2023 14:04:30" ref="A14" r:id="rId36"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.58 км от Новолисино" ref="E16" r:id="rId37"/>
+    <hyperlink display="05.12.2023 13:50:50" ref="B11" r:id="rId38"/>
+    <hyperlink display="05.12.2023 13:00:57" ref="A9" r:id="rId39"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="E9" r:id="rId40"/>
+    <hyperlink display="05.12.2023 13:54:19" ref="B12" r:id="rId41"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.92 км от Новолисино" ref="E2" r:id="rId42"/>
+    <hyperlink display="05.12.2023 11:47:25" ref="B6" r:id="rId43"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.53 км от Новолисино" ref="E13" r:id="rId44"/>
+    <hyperlink display="05.12.2023 11:50:00" ref="A7" r:id="rId45"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="E10" r:id="rId46"/>
+    <hyperlink display="05.12.2023 11:45:51" ref="B5" r:id="rId47"/>
+    <hyperlink display="05.12.2023 13:00:00" ref="B8" r:id="rId48"/>
+    <hyperlink display="05.12.2023 14:14:53" ref="B19" r:id="rId49"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.55 км от Новолисино" ref="E14" r:id="rId50"/>
+    <hyperlink display="05.12.2023 09:34:52" ref="A19" r:id="rId51"/>
+    <hyperlink display="05.12.2023 13:00:00" ref="A8" r:id="rId52"/>
+    <hyperlink display="05.12.2023 13:58:55" ref="A13" r:id="rId53"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col max="101" min="1" style="0" width="16.666666"/>
+  </cols>
+  <sheetData>
+    <row ht="12.800000" outlineLevel="0" r="1" s="0">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="3" s="0">
+      <c r="A3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="4" s="0">
+      <c r="A4" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="5" s="0">
+      <c r="A5" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="6" s="0">
+      <c r="A6" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="7" s="0">
+      <c r="A7" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="8" s="0">
+      <c r="A8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="9" s="0">
+      <c r="A9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="10" s="0"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="F7" r:id="rId1"/>
+    <hyperlink display="05.12.2023 09:53:11" ref="A3" r:id="rId2"/>
+    <hyperlink display="05.12.2023 09:31:09" ref="B2" r:id="rId3"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.97 км от Новолисино" ref="F3" r:id="rId4"/>
+    <hyperlink display="05.12.2023 10:26:19" ref="B4" r:id="rId5"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="F4" r:id="rId6"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино" ref="F5" r:id="rId7"/>
+    <hyperlink display="05.12.2023 12:59:51" ref="B9" r:id="rId8"/>
+    <hyperlink display="05.12.2023 11:21:36" ref="A7" r:id="rId9"/>
+    <hyperlink display="05.12.2023 11:51:57" ref="A8" r:id="rId10"/>
+    <hyperlink display="05.12.2023 09:59:14" ref="B3" r:id="rId11"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="F8" r:id="rId12"/>
+    <hyperlink display="05.12.2023 10:55:25" ref="A6" r:id="rId13"/>
+    <hyperlink display="05.12.2023 12:59:51" ref="B8" r:id="rId14"/>
+    <hyperlink display="05.12.2023 11:33:55" ref="B7" r:id="rId15"/>
+    <hyperlink display="05.12.2023 10:45:50" ref="B5" r:id="rId16"/>
+    <hyperlink display="05.12.2023 10:34:11" ref="A5" r:id="rId17"/>
+    <hyperlink display="05.12.2023 10:13:51" ref="A4" r:id="rId18"/>
+    <hyperlink display="05.12.2023 11:16:02" ref="B6" r:id="rId19"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="F6" r:id="rId20"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col max="101" min="1" style="0" width="16.666666"/>
+  </cols>
+  <sheetData>
+    <row ht="12.800000" outlineLevel="0" r="1" s="0">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="24" t="n">
+        <v>1.293509</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <v>3.522416</v>
+      </c>
+      <c r="K2" s="25" t="n">
+        <v>9.000000</v>
+      </c>
+      <c r="L2" s="27" t="n">
+        <v>2.101257</v>
+      </c>
+      <c r="M2" s="28" t="n">
+        <v>162.446223</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="3" s="0">
+      <c r="A3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="24" t="n">
+        <v>0.946119</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <v>3.883725</v>
+      </c>
+      <c r="K3" s="25" t="n">
+        <v>8.000000</v>
+      </c>
+      <c r="L3" s="27" t="n">
+        <v>4.718094</v>
+      </c>
+      <c r="M3" s="28" t="n">
+        <v>498.678939</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="4" s="0">
+      <c r="A4" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="24" t="n">
+        <v>0.452499</v>
+      </c>
+      <c r="J4" s="25" t="n">
+        <v>3.451262</v>
+      </c>
+      <c r="K4" s="25" t="n">
+        <v>11.000000</v>
+      </c>
+      <c r="L4" s="27" t="n">
+        <v>2.310364</v>
+      </c>
+      <c r="M4" s="28" t="n">
+        <v>510.578971</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="5" s="0">
+      <c r="A5" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="24" t="n">
+        <v>0.329153</v>
+      </c>
+      <c r="J5" s="25" t="n">
+        <v>2.060781</v>
+      </c>
+      <c r="K5" s="25" t="n">
+        <v>8.000000</v>
+      </c>
+      <c r="L5" s="27" t="n">
+        <v>1.291092</v>
+      </c>
+      <c r="M5" s="28" t="n">
+        <v>392.247300</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="6" s="0">
+      <c r="A6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="24" t="n">
+        <v>0.207412</v>
+      </c>
+      <c r="J6" s="25" t="n">
+        <v>2.235576</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>8.000000</v>
+      </c>
+      <c r="L6" s="31" t="n">
+        <v>0.000000</v>
+      </c>
+      <c r="M6" s="28" t="n">
+        <v>0.000000</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="7" s="0">
+      <c r="A7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="24" t="n">
+        <v>0.360212</v>
+      </c>
+      <c r="J7" s="25" t="n">
+        <v>1.198487</v>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>7.000000</v>
+      </c>
+      <c r="L7" s="27" t="n">
+        <v>7.462204</v>
+      </c>
+      <c r="M7" s="28" t="n">
+        <v>2071.614080</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="8" s="0">
+      <c r="A8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>1.692762</v>
+      </c>
+      <c r="J8" s="25" t="n">
+        <v>1.280240</v>
+      </c>
+      <c r="K8" s="25" t="n">
+        <v>8.000000</v>
+      </c>
+      <c r="L8" s="27" t="n">
+        <v>8.477966</v>
+      </c>
+      <c r="M8" s="28" t="n">
+        <v>500.836265</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="9" s="0">
+      <c r="A9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="33" t="n">
+        <v>5.281665</v>
+      </c>
+      <c r="J9" s="34" t="n">
+        <v>2.018042</v>
+      </c>
+      <c r="K9" s="34" t="n">
+        <v>11.000000</v>
+      </c>
+      <c r="L9" s="36" t="n">
+        <v>26.360977</v>
+      </c>
+      <c r="M9" s="37" t="n">
+        <v>499.103513</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="10" s="0"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="05.12.2023 10:26:19" ref="A4" r:id="rId1"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="B4" r:id="rId2"/>
+    <hyperlink display="05.12.2023 11:16:02" ref="A6" r:id="rId3"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="B7" r:id="rId4"/>
+    <hyperlink display="8 км/ч" ref="K6" r:id="rId5"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="B8" r:id="rId6"/>
+    <hyperlink display="05.12.2023 11:51:57" ref="C7" r:id="rId7"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино" ref="D4" r:id="rId8"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.78 км от Новолисино" ref="D7" r:id="rId9"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="D8" r:id="rId10"/>
+    <hyperlink display="05.12.2023 10:13:51" ref="C3" r:id="rId11"/>
+    <hyperlink display="05.12.2023 09:31:09" ref="A9" r:id="rId12"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.59 км от Новолисино" ref="D9" r:id="rId13"/>
+    <hyperlink display="05.12.2023 10:55:25" ref="C5" r:id="rId14"/>
+    <hyperlink display="05.12.2023 14:19:11" ref="C8" r:id="rId15"/>
+    <hyperlink display="8 км/ч" ref="K5" r:id="rId16"/>
+    <hyperlink display="05.12.2023 12:59:51" ref="A8" r:id="rId17"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="D6" r:id="rId18"/>
+    <hyperlink display="9 км/ч" ref="K2" r:id="rId19"/>
+    <hyperlink display="7 км/ч" ref="K7" r:id="rId20"/>
+    <hyperlink display="8 км/ч" ref="K8" r:id="rId21"/>
+    <hyperlink display="8 км/ч" ref="K3" r:id="rId22"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="D5" r:id="rId23"/>
+    <hyperlink display="05.12.2023 14:19:11" ref="C9" r:id="rId24"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.94 км от Новолисино" ref="B5" r:id="rId25"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="B9" r:id="rId26"/>
+    <hyperlink display="05.12.2023 09:31:09" ref="A2" r:id="rId27"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="D3" r:id="rId28"/>
+    <hyperlink display="05.12.2023 11:33:55" ref="A7" r:id="rId29"/>
+    <hyperlink display="05.12.2023 11:21:36" ref="C6" r:id="rId30"/>
+    <hyperlink display="05.12.2023 10:34:11" ref="C4" r:id="rId31"/>
+    <hyperlink display="11 км/ч" ref="K9" r:id="rId32"/>
+    <hyperlink display="05.12.2023 10:45:50" ref="A5" r:id="rId33"/>
+    <hyperlink display="05.12.2023 09:53:11" ref="C2" r:id="rId34"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.97 км от Новолисино" ref="D2" r:id="rId35"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.95 км от Новолисино" ref="B6" r:id="rId36"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.79 км от Новолисино" ref="B2" r:id="rId37"/>
+    <hyperlink display="05.12.2023 09:59:14" ref="A3" r:id="rId38"/>
+    <hyperlink display="41К-170, Ленинградская обл., Россия, 2.97 км от Новолисино" ref="B3" r:id="rId39"/>
+    <hyperlink display="11 км/ч" ref="K4" r:id="rId40"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col max="101" min="1" style="0" width="16.666666"/>
+  </cols>
+  <sheetData>
+    <row ht="12.800000" outlineLevel="0" r="1" s="0">
+      <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row ht="12.800000" outlineLevel="0" r="2" s="0">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30.000000" outlineLevel="0" r="3" s="0"/>
+  </sheetData>
+</worksheet>
 </file>